--- a/Resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
@@ -463,15 +463,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string-&gt;KFConfigData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>配置文件路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>channelstring-&gt;KFConfigData</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -732,6 +724,14 @@
   </si>
   <si>
     <t>weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string-&gt;KFConfigData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string-&gt;KFConfigData</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1336,15 +1336,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="9" bestFit="1" customWidth="1"/>
@@ -1357,7 +1357,7 @@
         <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>96</v>
@@ -1366,7 +1366,7 @@
         <v>100</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -1400,19 +1400,19 @@
         <v>94</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="F3" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>101</v>
@@ -1459,13 +1459,13 @@
         <v>95</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>97</v>
@@ -1479,10 +1479,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1588,16 +1588,16 @@
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>146</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>102</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E19" s="22">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>30</v>
@@ -1758,7 +1758,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21" s="8">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E22" s="8">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" s="8">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E24" s="8">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>42</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E26" s="8">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>85</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>86</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>48</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>50</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E31" s="8">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>93</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E32" s="8">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>53</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E33" s="8">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>55</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E34" s="8">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>57</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E35" s="8">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>80</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E36" s="8">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E37" s="8">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>61</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E38" s="8">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>63</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E39" s="8">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>65</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E40" s="8">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>67</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E41" s="8">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>69</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E42" s="8">
         <v>0</v>
@@ -2278,16 +2278,16 @@
     </row>
     <row r="43" spans="1:8" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E43" s="11">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>73</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E44" s="8">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>70</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E45" s="8">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>77</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E46" s="8">
         <v>0</v>
@@ -2370,16 +2370,16 @@
     </row>
     <row r="47" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="D47" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="F47" s="8">
         <v>1</v>

--- a/Resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="163">
   <si>
     <t>描述说明</t>
   </si>
@@ -732,6 +732,36 @@
   </si>
   <si>
     <t>string-&gt;KFConfigData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemcommon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具配置表</t>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemtype</t>
+  </si>
+  <si>
+    <t>itemtype</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itembag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具背包配置表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型配置表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,6 +991,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1334,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2391,6 +2427,66 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="24">
+        <v>1</v>
+      </c>
+      <c r="G48" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="24">
+        <v>1</v>
+      </c>
+      <c r="G49" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="24">
+        <v>1</v>
+      </c>
+      <c r="G50" s="24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/table/K-框架-配置列表-(框架维护,请勿修改).xlsx
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
